--- a/dataframe3.xlsx
+++ b/dataframe3.xlsx
@@ -1271,7 +1271,7 @@
         <v>0.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1457,7 +1457,7 @@
         <v>0.4</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2387,7 +2387,7 @@
         <v>0.4</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2821,7 +2821,7 @@
         <v>0.4</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3317,7 +3317,7 @@
         <v>0.8</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -5363,7 +5363,7 @@
         <v>0.8</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -5921,7 +5921,7 @@
         <v>0.4</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -7099,7 +7099,7 @@
         <v>0.4</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -7285,7 +7285,7 @@
         <v>0.4</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -7595,7 +7595,7 @@
         <v>0.8</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -8029,7 +8029,7 @@
         <v>0.4</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -8277,7 +8277,7 @@
         <v>0.4</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8897,7 +8897,7 @@
         <v>0.4</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -9889,7 +9889,7 @@
         <v>0.4</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -10385,7 +10385,7 @@
         <v>0.8</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -11377,7 +11377,7 @@
         <v>0.4</v>
       </c>
       <c r="T176" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -11997,7 +11997,7 @@
         <v>0.8</v>
       </c>
       <c r="T186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -13299,7 +13299,7 @@
         <v>0.4</v>
       </c>
       <c r="T207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -13547,7 +13547,7 @@
         <v>0.4</v>
       </c>
       <c r="T211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -13609,7 +13609,7 @@
         <v>0.4</v>
       </c>
       <c r="T212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -13671,7 +13671,7 @@
         <v>0.4</v>
       </c>
       <c r="T213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -13733,7 +13733,7 @@
         <v>0.4</v>
       </c>
       <c r="T214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -14229,7 +14229,7 @@
         <v>0.4</v>
       </c>
       <c r="T222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -15221,7 +15221,7 @@
         <v>0.4</v>
       </c>
       <c r="T238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -15841,7 +15841,7 @@
         <v>0.4</v>
       </c>
       <c r="T248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -15965,7 +15965,7 @@
         <v>0.4</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -16647,7 +16647,7 @@
         <v>0.8</v>
       </c>
       <c r="T261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -16709,7 +16709,7 @@
         <v>0.4</v>
       </c>
       <c r="T262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -16833,7 +16833,7 @@
         <v>0.4</v>
       </c>
       <c r="T264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -17391,7 +17391,7 @@
         <v>0.4</v>
       </c>
       <c r="T273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -17763,7 +17763,7 @@
         <v>0.8</v>
       </c>
       <c r="T279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280">
@@ -18073,7 +18073,7 @@
         <v>0.4</v>
       </c>
       <c r="T284" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285">
@@ -18197,7 +18197,7 @@
         <v>0.8</v>
       </c>
       <c r="T286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -18259,7 +18259,7 @@
         <v>0.4</v>
       </c>
       <c r="T287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -18879,7 +18879,7 @@
         <v>0.4</v>
       </c>
       <c r="T297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -19003,7 +19003,7 @@
         <v>0.4</v>
       </c>
       <c r="T299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -19189,7 +19189,7 @@
         <v>0.4</v>
       </c>
       <c r="T302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -19561,7 +19561,7 @@
         <v>0.4</v>
       </c>
       <c r="T308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -19623,7 +19623,7 @@
         <v>0.4</v>
       </c>
       <c r="T309" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -19933,7 +19933,7 @@
         <v>0.4</v>
       </c>
       <c r="T314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -19995,7 +19995,7 @@
         <v>0.4</v>
       </c>
       <c r="T315" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316">
@@ -20243,7 +20243,7 @@
         <v>0.4</v>
       </c>
       <c r="T319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -21111,7 +21111,7 @@
         <v>0.4</v>
       </c>
       <c r="T333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -21235,7 +21235,7 @@
         <v>0.4</v>
       </c>
       <c r="T335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -22165,7 +22165,7 @@
         <v>0.4</v>
       </c>
       <c r="T350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
